--- a/Course/course1.xlsx
+++ b/Course/course1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document-E\Master-courses\Python\Programming for IS\Reporting_Course_Performance\Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4086A51D-D554-48A3-BE14-FFF0C2E92042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549AF6B-1373-475F-8416-97E4AD75B46C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,22 +78,22 @@
     <t>ANAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hassan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jamal </t>
   </si>
   <si>
-    <t xml:space="preserve"> Kareem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Omar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Salman </t>
   </si>
   <si>
     <t>226016@ppu.edu</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kareem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar </t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -791,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -831,15 +831,13 @@
       <c r="F13" s="2">
         <v>7</v>
       </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2">
         <v>19</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Course/course1.xlsx
+++ b/Course/course1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document-E\Master-courses\Python\Programming for IS\Reporting_Course_Performance\Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549AF6B-1373-475F-8416-97E4AD75B46C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A1CDB-C2A3-4E6E-9EB8-DA1936D5D789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Ahmad</t>
   </si>
   <si>
-    <t xml:space="preserve">Ehab </t>
-  </si>
-  <si>
     <t>Foud</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Omar </t>
+  </si>
+  <si>
+    <t>Ehab</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>9</v>
@@ -567,12 +567,12 @@
       </c>
       <c r="I3" s="4">
         <f>SUM(D3:H3)</f>
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -643,15 +643,13 @@
       <c r="F6" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>19</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -659,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -685,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -711,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -735,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -763,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -791,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -819,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
